--- a/AltController/Translation/Translation_en-US.xlsx
+++ b/AltController/Translation/Translation_en-US.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Original</t>
-  </si>
-  <si>
     <t xml:space="preserve">About_LicenceLabel</t>
   </si>
   <si>
@@ -43,18 +40,12 @@
     <t xml:space="preserve">About</t>
   </si>
   <si>
-    <t xml:space="preserve">Licence</t>
-  </si>
-  <si>
     <t xml:space="preserve">About_LicenceTab</t>
   </si>
   <si>
     <t xml:space="preserve">_License</t>
   </si>
   <si>
-    <t xml:space="preserve">_Licence</t>
-  </si>
-  <si>
     <t xml:space="preserve">Custom_ButtonBgColorLabel</t>
   </si>
   <si>
@@ -64,94 +55,64 @@
     <t xml:space="preserve">Custom window</t>
   </si>
   <si>
-    <t xml:space="preserve">Background colour:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Custom_ButtonBorderColourLabel</t>
   </si>
   <si>
     <t xml:space="preserve">Border color:</t>
   </si>
   <si>
-    <t xml:space="preserve">Border colour:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Custom_ButtonTextColourLabel</t>
   </si>
   <si>
     <t xml:space="preserve">Text color:</t>
   </si>
   <si>
-    <t xml:space="preserve">Text colour:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Custom_WindowBgColorLabel</t>
   </si>
   <si>
     <t xml:space="preserve">E_CUST007</t>
   </si>
   <si>
-    <t xml:space="preserve">Error {0} while selecting background color</t>
+    <t xml:space="preserve">Error while selecting background color</t>
   </si>
   <si>
     <t xml:space="preserve">Error message</t>
   </si>
   <si>
-    <t xml:space="preserve">Error {0} while selecting background colour</t>
-  </si>
-  <si>
     <t xml:space="preserve">E_CUST017</t>
   </si>
   <si>
-    <t xml:space="preserve">Error {0} while changing button border color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error {0} while changing button border colour</t>
+    <t xml:space="preserve">Error while changing button border color</t>
   </si>
   <si>
     <t xml:space="preserve">E_CUST018</t>
   </si>
   <si>
-    <t xml:space="preserve">Error {0} while changing button background color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error {0} while changing button background colour</t>
+    <t xml:space="preserve">Error while changing button background color</t>
   </si>
   <si>
     <t xml:space="preserve">E_CUST024</t>
   </si>
   <si>
-    <t xml:space="preserve">Error {0} while changing button text color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error {0} while changing button text colour</t>
+    <t xml:space="preserve">Error while changing button text color</t>
   </si>
   <si>
     <t xml:space="preserve">E_MAIN001</t>
   </si>
   <si>
-    <t xml:space="preserve">Error {0} while initializing folders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error {0} while initialising folders</t>
+    <t xml:space="preserve">Error while initializing folders</t>
   </si>
   <si>
     <t xml:space="preserve">E_MAIN002</t>
   </si>
   <si>
-    <t xml:space="preserve">Error {0} while initializing application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error {0} while initialising application</t>
+    <t xml:space="preserve">Error while initializing application</t>
   </si>
   <si>
     <t xml:space="preserve">E_REG015</t>
   </si>
   <si>
-    <t xml:space="preserve">Error {0} while changing the region color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error {0} while changing the region colour</t>
+    <t xml:space="preserve">Error while changing the region color</t>
   </si>
   <si>
     <t xml:space="preserve">Options_ModeOverlayColorLabel</t>
@@ -163,28 +124,22 @@
     <t xml:space="preserve">Options - Display</t>
   </si>
   <si>
-    <t xml:space="preserve">Mode/page overlay text colour:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Options_PointerColourLabel</t>
   </si>
   <si>
     <t xml:space="preserve">Pointer indicator color:</t>
   </si>
   <si>
-    <t xml:space="preserve">Pointer indicator colour:</t>
+    <t xml:space="preserve">Regions_BackgroundColorLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit screen regions</t>
   </si>
   <si>
     <t xml:space="preserve">Regions_RegionColorLabel</t>
   </si>
   <si>
     <t xml:space="preserve">Color:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit screen regions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colour:</t>
   </si>
 </sst>
 </file>
@@ -266,16 +221,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,267 +250,335 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>54</v>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/AltController/Translation/Translation_en-US.xlsx
+++ b/AltController/Translation/Translation_en-US.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -37,24 +37,30 @@
     <t xml:space="preserve">License</t>
   </si>
   <si>
-    <t xml:space="preserve">About</t>
-  </si>
-  <si>
     <t xml:space="preserve">About_LicenceTab</t>
   </si>
   <si>
     <t xml:space="preserve">_License</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_MinimiseToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize the window if it is already active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_RestoreIfMinimised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Restore if minimized</t>
+  </si>
+  <si>
     <t xml:space="preserve">Custom_ButtonBgColorLabel</t>
   </si>
   <si>
     <t xml:space="preserve">Background color:</t>
   </si>
   <si>
-    <t xml:space="preserve">Custom window</t>
-  </si>
-  <si>
     <t xml:space="preserve">Custom_ButtonBorderColourLabel</t>
   </si>
   <si>
@@ -76,9 +82,6 @@
     <t xml:space="preserve">Error while selecting background color</t>
   </si>
   <si>
-    <t xml:space="preserve">Error message</t>
-  </si>
-  <si>
     <t xml:space="preserve">E_CUST017</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
     <t xml:space="preserve">Mode/page overlay text color:</t>
   </si>
   <si>
-    <t xml:space="preserve">Options - Display</t>
-  </si>
-  <si>
     <t xml:space="preserve">Options_PointerColourLabel</t>
   </si>
   <si>
@@ -133,13 +133,46 @@
     <t xml:space="preserve">Regions_BackgroundColorLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit screen regions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regions_RegionColorLabel</t>
   </si>
   <si>
     <t xml:space="preserve">Color:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_Maximise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_MaximiseOrMinimiseWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize / minimize window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_MaximiseOrRestoreWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize / restore window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_MaximiseWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_Minimise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_MinimiseWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize window</t>
   </si>
 </sst>
 </file>
@@ -361,10 +394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -394,185 +427,198 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
